--- a/data/22_Questions_05.xlsx
+++ b/data/22_Questions_05.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuou-my.sharepoint.com/personal/jhlee409_mail_ulsan_ac_kr/Documents/LLM/CPX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://liveuou-my.sharepoint.com/personal/jhlee409_mail_ulsan_ac_kr/Documents/LLM/CPX/sinarios 원본/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{A468C899-813C-4532-9380-33C43D269CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:3_{B3F55C6C-AB21-450D-9965-E41D53FCE1E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40695" yWindow="1620" windowWidth="33675" windowHeight="15435" xr2:uid="{ABCB648B-F16E-4ED9-8EE5-880306947D1E}"/>
+    <workbookView xWindow="2835" yWindow="480" windowWidth="33675" windowHeight="19395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>Chief complaint 라서 당연히 제일 중요합니다.</t>
   </si>
@@ -228,7 +217,74 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>혈변의 흔한 원인 5가지는</t>
+    <t xml:space="preserve">혈변과 동반되는 증상을 확인하는 질문입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">혈변의 경과를 확인하는 질문입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈변을 유발하는 있는 약제 복용력을 확인하는 질문입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈을 유발할 수 있는 상부 위장관 질환, 대장 질환 유무를 확인하는 질문입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혈변을 유발할 수 있는 특이 병력을 확인하는 질문입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">유병기간의 추측에 중요한 질문이며 급성, 아급성, 만성적인 혈변인지 감별하는 질문입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">다량의 혈변에 의한 쇽, 빈혈의 발생  유무를 확인하여 소생술을 해야할 지 결정해야 하므로 중요한 질문합니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">궤양성 대장염과 같은 전신 염증반응을 동반한 증상인지 확인하기 위한질문입니다.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">진행성 대장암과 같은 경고 증상을 확인하는 질문입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">간경변의 유무, 혈액질환에 의한 혈변유무를 확인하는 질문입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">당뇨병이나 간질환, 심장질환시 위장관 출혈을 유발할 수 있으는 항혈소판제, 항응고제를 복용하는 경우가 있으므로 확인할 수 있는 질문입니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>항혈소판제, 항응고제를 복용하는 경우가 있으므로 확인할 수 있는 질문입니</t>
+  </si>
+  <si>
+    <t xml:space="preserve">대장암이나 궤양성 대장염은 가족내에서 발병하는 경향이 있으므로 이를 확인하기 위한 질문입니다.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론 검사를 해보아야 겠지만 만성적인 장의 염증 즉 궤양성 대장염, 항문질환을 감별해야 할 것 같습니다. 너무 걱정하지 마세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">혈변의 흔한 원인 5가지는  치핵, 치열과 같은항문질환, 궤양성대장염, 대장게실출혈,  대장암, 급성허혈성 장염 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">혈액검사, 변검사, 대장내시경검사를 받게 되실 겁니다. </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">혈변이 맞는지 확인하기 위해 필요한 질문입니다. 출혈양은 매우 중요하며  선홍색이면 하부 위장관 출혈일 가능성이 높습니다.  </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사회력을 확인하는 일상적인 질문입니다. </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -236,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -286,6 +342,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -324,7 +388,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -362,6 +426,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,17 +743,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7E7CE2-D32C-4075-BB3A-F845BF42855D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="153" style="1" customWidth="1"/>
+    <col min="2" max="2" width="107.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="127.25" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
@@ -736,7 +803,9 @@
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="11" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
@@ -748,7 +817,9 @@
       <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="11" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -760,9 +831,11 @@
       <c r="C6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -772,7 +845,9 @@
       <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
@@ -784,7 +859,9 @@
       <c r="C8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -796,7 +873,9 @@
       <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
@@ -808,7 +887,9 @@
       <c r="C10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
@@ -820,7 +901,9 @@
       <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="11"/>
+      <c r="D11" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
@@ -832,7 +915,9 @@
       <c r="C12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="11"/>
+      <c r="D12" s="11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
@@ -844,7 +929,9 @@
       <c r="C13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="11" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
@@ -856,7 +943,9 @@
       <c r="C14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="11" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
@@ -868,7 +957,9 @@
       <c r="C15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
@@ -880,9 +971,11 @@
       <c r="C16" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D16" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
@@ -904,7 +997,9 @@
       <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
@@ -916,7 +1011,9 @@
       <c r="C19" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
@@ -939,7 +1036,9 @@
       <c r="C22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="23" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
@@ -951,7 +1050,9 @@
       <c r="C23" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="9" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" spans="1:4" ht="31.5" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
@@ -963,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3">
@@ -995,4 +1096,263 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="ff787a2d-2d6b-476f-a86a-7576232a5461" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100F7BAF80CF3AFCE48ACD585E9074ADFEF" ma:contentTypeVersion="13" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="362952298d54dac45ce7308d549a3b63">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ff787a2d-2d6b-476f-a86a-7576232a5461" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="df9b7bdcd02e6b4a13cd58ae0e168457" ns3:_="">
+    <xsd:import namespace="ff787a2d-2d6b-476f-a86a-7576232a5461"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ff787a2d-2d6b-476f-a86a-7576232a5461" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="11" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="12" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="16" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:description="" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="18" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="20" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="콘텐츠 형식"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="제목"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D955C98B-7562-4A1E-82AC-3DBCCA214974}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3AF7781-BE6B-4C32-952F-5A35479EC9E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ff787a2d-2d6b-476f-a86a-7576232a5461"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A161A3E4-56D9-49F2-9742-C96A3383BEBA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff787a2d-2d6b-476f-a86a-7576232a5461"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>